--- a/output/google_maps_data_Toko_Oleh_oleh_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Toko_Oleh_oleh_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,21 +506,20 @@
           <t>0851-0140-4222</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="E2" t="n">
         <v>4.5</v>
       </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Oleh-oleh+Wingko+SusiloWati/@-7.865617,109.870864,11z/data=!4m13!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m8!1s0x2e7afb3f275a17ed:0x253a36da360ccb1!8m2!3d-7.865617!4d110.1592551!9m1!1b1!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F1pzs4s_t4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.4</v>
+        <v>-7.865678</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.865678</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.158167</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oleh-Oleh+Khas+Yogya+Toko+Hana/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3f2aef5607:0x186333bbb997dd87!8m2!3d-7.8656782!4d110.158167!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11b6syl69q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oleh-Oleh+Khas+Yogya+Toko+Hana/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3f2aef5607:0x186333bbb997dd87!8m2!3d-7.8656782!4d110.158167!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11b6syl69q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -581,25 +574,24 @@
           <t>(0274) 773417</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.86169</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.86169</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.157822</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Fajar+Baru+LUMBUNG+OLEH+OLEH/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3b86f89c4f:0x2932ae20a398449e!8m2!3d-7.8616904!4d110.1578218!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBCmZvb2Rfc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnFhbEJ1TlRWblJSQULgAQD6AQQIJBAn!16s%2Fg%2F11b6x4gtyf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Fajar+Baru+LUMBUNG+OLEH+OLEH/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3b86f89c4f:0x2932ae20a398449e!8m2!3d-7.8616904!4d110.1578218!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBCmZvb2Rfc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnFhbEJ1TlRWblJSQULgAQD6AQQIJBAn!16s%2Fg%2F11b6x4gtyf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -622,25 +614,24 @@
           <t>0822-2660-1971</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>-7.877223</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.877223</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.133803</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TokoMu+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae59d8f52f233:0xfc1e9f580b3ce836!8m2!3d-7.8772232!4d110.1338032!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBEWNvbnZlbmllbmNlX3N0b3JlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJHY25WcFZIcFJSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11pwrj253l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TokoMu+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae59d8f52f233:0xfc1e9f580b3ce836!8m2!3d-7.8772232!4d110.1338032!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBEWNvbnZlbmllbmNlX3N0b3JlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJHY25WcFZIcFJSUkFC4AEA-gEECAAQPQ!16s%2Fg%2F11pwrj253l?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -663,25 +654,24 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-7.864287</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.864287</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.160441</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Istana+Oleh-Oleh+Omah+Gedhang+JogjaKu/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb25e2463f31:0x45e71a8d4f3e1b72!8m2!3d-7.8642869!4d110.1604412!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBC3N1cGVybWFya2V04AEA!16s%2Fg%2F11klr1lh98?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Istana+Oleh-Oleh+Omah+Gedhang+JogjaKu/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb25e2463f31:0x45e71a8d4f3e1b72!8m2!3d-7.8642869!4d110.1604412!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBC3N1cGVybWFya2V04AEA!16s%2Fg%2F11klr1lh98?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -708,25 +698,24 @@
           <t>0852-0554-0141</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.5</v>
+        <v>-7.864466</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.864466</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.144184</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Moa+and+Co+(+oleh+-+oleh+kulon+progo+)/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb143335a85f:0x6d9801d271fba784!8m2!3d-7.864466!4d110.1441838!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDnNvdXZlbmlyX3N0b3Jl4AEA!16s%2Fg%2F11h07fcp_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Moa+and+Co+(+oleh+-+oleh+kulon+progo+)/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb143335a85f:0x6d9801d271fba784!8m2!3d-7.864466!4d110.1441838!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDnNvdXZlbmlyX3N0b3Jl4AEA!16s%2Fg%2F11h07fcp_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -753,25 +742,24 @@
           <t>0898-4810-000</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>-7.864998</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.864998</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.157262</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cokelat+Makaryo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb498f622e2f:0x6b2f31e556dbab0a!8m2!3d-7.8649982!4d110.157262!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDmNob2NvbGF0ZV9zaG9w4AEA!16s%2Fg%2F11gxjwb52b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Cokelat+Makaryo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb498f622e2f:0x6b2f31e556dbab0a!8m2!3d-7.8649982!4d110.157262!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDmNob2NvbGF0ZV9zaG9w4AEA!16s%2Fg%2F11gxjwb52b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -794,25 +782,24 @@
           <t>0815-7989-746</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.851259</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.851259</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.158916</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wingko+Suci+Harwati/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb21382d0e41:0xd1c8bbaa2b1ba384!8m2!3d-7.8512587!4d110.1589156!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBE25hdHVyYWxfZm9vZHNfc3RvcmXgAQA!16s%2Fg%2F11cmrtsf91?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wingko+Suci+Harwati/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb21382d0e41:0xd1c8bbaa2b1ba384!8m2!3d-7.8512587!4d110.1589156!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBE25hdHVyYWxfZm9vZHNfc3RvcmXgAQA!16s%2Fg%2F11cmrtsf91?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -835,25 +822,24 @@
           <t>0877-8150-0081</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.890045</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.890045</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.103103</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J%26C+Pusat+Oleh+Oleh+Khas+Jogja+2/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae555846a66f7:0x7c7f3a857084d7e4!8m2!3d-7.8900455!4d110.1031029!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDWdlbmVyYWxfc3RvcmXgAQA!16s%2Fg%2F11tjg7r1ym?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J%26C+Pusat+Oleh+Oleh+Khas+Jogja+2/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae555846a66f7:0x7c7f3a857084d7e4!8m2!3d-7.8900455!4d110.1031029!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDWdlbmVyYWxfc3RvcmXgAQA!16s%2Fg%2F11tjg7r1ym?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -876,25 +862,24 @@
           <t>0812-3828-3363</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.892219</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.892219</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.128218</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+Khas+Jogja/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae58a9f68fa27:0x7e468ef3b248d2f5!8m2!3d-7.8922186!4d110.1282175!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11t9n5kc4x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+Khas+Jogja/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae58a9f68fa27:0x7e468ef3b248d2f5!8m2!3d-7.8922186!4d110.1282175!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11t9n5kc4x?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -921,25 +906,24 @@
           <t>0819-3176-4176</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.898907</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.898907</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.058798</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mawar+Pusat+Oleh-oleh+YIA/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae312cb88ef2d:0xd4ab79d5f2505da8!8m2!3d-7.8989074!4d110.0587981!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBCWdpZnRfc2hvcOABAA!16s%2Fg%2F11rqnq0q7d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mawar+Pusat+Oleh-oleh+YIA/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae312cb88ef2d:0xd4ab79d5f2505da8!8m2!3d-7.8989074!4d110.0587981!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBCWdpZnRfc2hvcOABAA!16s%2Fg%2F11rqnq0q7d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -962,25 +946,24 @@
           <t>(0274) 773880</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>-7.866917</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.866917</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.15011</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-oleh+%26+Kerajinan+Khas+Jogja+Wates+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb37ca733bbf:0xb11476ae2ddbcff1!8m2!3d-7.8669169!4d110.15011!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBGZvb2SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkdaelJ0VTAxUkVBReABAPoBBAgAECE!16s%2Fg%2F11b6rx_7k0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-oleh+%26+Kerajinan+Khas+Jogja+Wates+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb37ca733bbf:0xb11476ae2ddbcff1!8m2!3d-7.8669169!4d110.15011!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBGZvb2SaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkdaelJ0VTAxUkVBReABAPoBBAgAECE!16s%2Fg%2F11b6rx_7k0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1003,25 +986,24 @@
           <t>0818-0411-7440</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.859608</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.859608</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.174413</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Prasojo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb840b14d2d3:0x8585327eebbe5871!8m2!3d-7.8596082!4d110.1744131!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11st6fxd1n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Prasojo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb840b14d2d3:0x8585327eebbe5871!8m2!3d-7.8596082!4d110.1744131!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11st6fxd1n?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1044,25 +1026,24 @@
           <t>(0274) 773925</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.4</v>
+        <v>-7.802965</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.802965</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.164507</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wingko+'Susilowati'/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7af00955802fb9:0xddae99169a0c6b80!8m2!3d-7.8029647!4d110.1645069!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBCmZvb2Rfc3RvcmXgAQA!16s%2Fg%2F1pzvqxc_j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wingko+'Susilowati'/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7af00955802fb9:0xddae99169a0c6b80!8m2!3d-7.8029647!4d110.1645069!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBCmZvb2Rfc3RvcmXgAQA!16s%2Fg%2F1pzvqxc_j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>10 jam lalu</t>
         </is>
@@ -1085,25 +1066,24 @@
           <t>0822-4211-1881</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.856814</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.856814</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.160849</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Meat+Nata+Wates+(Meat+Shop+-+Seafood+-+Frozen+Food)+Kulon+Progo+Yogyakarta/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afba50022c98f:0x7bc21bf88455a0a9!8m2!3d-7.8568142!4d110.1608486!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBFWdvdXJtZXRfZ3JvY2VyeV9zdG9yZeABAA!16s%2Fg%2F11rbm35mp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Meat+Nata+Wates+(Meat+Shop+-+Seafood+-+Frozen+Food)+Kulon+Progo+Yogyakarta/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afba50022c98f:0x7bc21bf88455a0a9!8m2!3d-7.8568142!4d110.1608486!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBFWdvdXJtZXRfZ3JvY2VyeV9zdG9yZeABAA!16s%2Fg%2F11rbm35mp3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -1122,25 +1102,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>-7.863514</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.863514</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.151552</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Siliwangi+Bolu+Kukus+Wates,+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb5e885ce547:0xe9060e7a1377f380!8m2!3d-7.8635139!4d110.1515516!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11stq9nvtt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Siliwangi+Bolu+Kukus+Wates,+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb5e885ce547:0xe9060e7a1377f380!8m2!3d-7.8635139!4d110.1515516!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11stq9nvtt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1159,25 +1138,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>-7.866014</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.866014</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.149229</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TOKO+OLEH2+UMKM+KULON+PROGO+%26+PUSAT+JAJANAN+PASAR+UBERMAH/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb0060dda7a7:0xcc503f2f3a37cafe!8m2!3d-7.8660142!4d110.1492292!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBC3N1cGVybWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5mTVhCRFVYaFJSUkFC4AEA-gEECAAQRw!16s%2Fg%2F11ybdwj4n5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TOKO+OLEH2+UMKM+KULON+PROGO+%26+PUSAT+JAJANAN+PASAR+UBERMAH/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb0060dda7a7:0xcc503f2f3a37cafe!8m2!3d-7.8660142!4d110.1492292!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBC3N1cGVybWFya2V0mgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5mTVhCRFVYaFJSUkFC4AEA-gEECAAQRw!16s%2Fg%2F11ybdwj4n5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1196,25 +1174,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.6</v>
+        <v>-7.835808</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.835808</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.167098</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Bela/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afae88a0dccb7:0x3154f45f0b5fc115!8m2!3d-7.8358081!4d110.1670979!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBXN0b3JlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5LYkhCMk5HUjNFQUXgAQD6AQQIABBF!16s%2Fg%2F11bzrpk04_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Bela/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afae88a0dccb7:0x3154f45f0b5fc115!8m2!3d-7.8358081!4d110.1670979!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBXN0b3JlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5LYkhCMk5HUjNFQUXgAQD6AQQIABBF!16s%2Fg%2F11bzrpk04_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1241,25 +1218,24 @@
           <t>0821-6468-7799</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>-7.863275</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.863275</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.15755</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Papa+Cookies+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afbab8ff53a1b:0x285b60ece002a909!8m2!3d-7.863275!4d110.1575499!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11jm73l3ht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Papa+Cookies+Kulon+Progo/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afbab8ff53a1b:0x285b60ece002a909!8m2!3d-7.863275!4d110.1575499!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBmJha2VyeeABAA!16s%2Fg%2F11jm73l3ht?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1282,25 +1258,24 @@
           <t>0852-9342-3104</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.83739</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.83739</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.174762</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Barokah/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afae55a95524f:0x55116c0c1ee10332!8m2!3d-7.83739!4d110.1747618!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBXN0b3JlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5pYjNSMmJUbEJSUkFC4AEA-gEECAAQQA!16s%2Fg%2F11gdknz4jd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Barokah/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afae55a95524f:0x55116c0c1ee10332!8m2!3d-7.83739!4d110.1747618!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBBXN0b3JlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5pYjNSMmJUbEJSUkFC4AEA-gEECAAQQA!16s%2Fg%2F11gdknz4jd?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -1319,25 +1294,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.858694</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.858694</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.171476</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oleh-oleh+Tiga+Jempol/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb55e1139407:0x7c21d941e5407a25!8m2!3d-7.8586939!4d110.1714761!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDWdyb2Nlcnlfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdkRm8zVDFkM0VBReABAPoBBAgAEC0!16s%2Fg%2F11vhz7_b7r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oleh-oleh+Tiga+Jempol/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb55e1139407:0x7c21d941e5407a25!8m2!3d-7.8586939!4d110.1714761!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDWdyb2Nlcnlfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdkRm8zVDFkM0VBReABAPoBBAgAEC0!16s%2Fg%2F11vhz7_b7r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1360,25 +1334,24 @@
           <t>0819-1707-2170</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.6</v>
+        <v>-7.886461</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.886461</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.05822</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/J%26C+Pusat+Oleh+Oleh+Khas+Jogja/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae51eece244a7:0x4f6b9be163cfa81c!8m2!3d-7.8864615!4d110.0582195!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11lkx2qk5q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/J%26C+Pusat+Oleh+Oleh+Khas+Jogja/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7ae51eece244a7:0x4f6b9be163cfa81c!8m2!3d-7.8864615!4d110.0582195!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11lkx2qk5q?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1401,25 +1374,24 @@
           <t>0815-7989-746</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.851292</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.851292</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.158786</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Pathuk+Rahmat/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb2137dedef1:0x75ed77daab1ec6ee!8m2!3d-7.8512923!4d110.1587856!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDWZvb2RfcHJvZHVjZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFaMUJZUkhoQlJSQULgAQD6AQQIABA9!16s%2Fg%2F11c7sbvplz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Pathuk+Rahmat/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb2137dedef1:0x75ed77daab1ec6ee!8m2!3d-7.8512923!4d110.1587856!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBDWZvb2RfcHJvZHVjZXKaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFaMUJZUkhoQlJSQULgAQD6AQQIABA9!16s%2Fg%2F11c7sbvplz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1442,25 +1414,24 @@
           <t>0851-0061-6764</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.859594</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.859594</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.158656</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1483,25 +1454,24 @@
           <t>0851-0061-6764</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.859594</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.859594</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.158656</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1528,25 +1498,24 @@
           <t>0813-6244-4414</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.866406</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.866406</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.160152</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Aki+Shop+Kulon+Progo+24jam/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afbe6a6da70e3:0x322ccc4fd46007d4!8m2!3d-7.8664056!4d110.1601524!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBEWNhcl9iYXR0ZXJ5X3N0b3Jl4AEA!16s%2Fg%2F11l6bg84_8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Aki+Shop+Kulon+Progo+24jam/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afbe6a6da70e3:0x322ccc4fd46007d4!8m2!3d-7.8664056!4d110.1601524!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb1ocIhp0b2tvIG9sZWggb2xlaCBrdWxvbiBwcm9nb5IBEWNhcl9iYXR0ZXJ5X3N0b3Jl4AEA!16s%2Fg%2F11l6bg84_8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
